--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/累计折旧.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/累计折旧.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>385.7295</v>
-      </c>
-      <c r="C2" t="n">
-        <v>993.1102100000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.0038</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06003</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.35802</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1522.73192</v>
-      </c>
-      <c r="H2" t="n">
-        <v>398.54126</v>
-      </c>
-      <c r="I2" t="n">
-        <v>228.02161</v>
-      </c>
-      <c r="J2" t="n">
-        <v>109.60144</v>
-      </c>
-      <c r="K2" t="n">
-        <v>148.37056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20176.60778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14.3106</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.06166</v>
-      </c>
-      <c r="O2" t="n">
-        <v>570.29375</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492.894</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>86.13001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>75.05513999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>44.33746</v>
-      </c>
-      <c r="T2" t="n">
-        <v>56.38306</v>
-      </c>
-      <c r="U2" t="n">
-        <v>117.93927</v>
-      </c>
-      <c r="V2" t="n">
-        <v>274.46958</v>
-      </c>
-      <c r="W2" t="n">
-        <v>97.24377</v>
-      </c>
-      <c r="X2" t="n">
-        <v>854.92319</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3877.35361</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>628.28874</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>442.58522</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>40.47252</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1056.68381</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2389.00951</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>717.52148</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>253.15066</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>194.31572</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>155.04607</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>645.8559299999999</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>74.21854999999999</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>149.2342</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>249.98552</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>297.59611</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2216.96061</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>42.03885</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>405.10859</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1200.37161</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112.73282</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.06003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33.47136</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1712.95313</v>
-      </c>
-      <c r="H3" t="n">
-        <v>334.51474</v>
-      </c>
-      <c r="I3" t="n">
-        <v>269.24497</v>
-      </c>
-      <c r="J3" t="n">
-        <v>138.23191</v>
-      </c>
-      <c r="K3" t="n">
-        <v>182.10521</v>
-      </c>
-      <c r="L3" t="n">
-        <v>23743.27618</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18.04164</v>
-      </c>
-      <c r="N3" t="n">
-        <v>26.76014</v>
-      </c>
-      <c r="O3" t="n">
-        <v>600.02589</v>
-      </c>
-      <c r="P3" t="n">
-        <v>563.91359</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>90.61596</v>
-      </c>
-      <c r="R3" t="n">
-        <v>93.35356</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.4774</v>
-      </c>
-      <c r="T3" t="n">
-        <v>57.15403</v>
-      </c>
-      <c r="U3" t="n">
-        <v>141.70768</v>
-      </c>
-      <c r="V3" t="n">
-        <v>337.11499</v>
-      </c>
-      <c r="W3" t="n">
-        <v>99.08284999999999</v>
-      </c>
-      <c r="X3" t="n">
-        <v>994.4220299999999</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4830.14436</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>836.10335</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>553.78486</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>52.56848</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1299.1555</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2820.33817</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>773.29511</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>296.24899</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>252.80808</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>187.65911</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>743.23108</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>86.59586</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>184.06838</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>280.16426</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>356.04283</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2550.01961</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>43.70029</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>411.43482</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1282.37638</v>
-      </c>
-      <c r="D4" t="n">
-        <v>121.5569</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06003</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.51518</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1926.3635</v>
-      </c>
-      <c r="H4" t="n">
-        <v>357.67087</v>
-      </c>
-      <c r="I4" t="n">
-        <v>305.76059</v>
-      </c>
-      <c r="J4" t="n">
-        <v>150.38205</v>
-      </c>
-      <c r="K4" t="n">
-        <v>214.689</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26461.32794</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20.93025</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32.08044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>658.03246</v>
-      </c>
-      <c r="P4" t="n">
-        <v>618.24276</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>91.8327</v>
-      </c>
-      <c r="R4" t="n">
-        <v>104.28974</v>
-      </c>
-      <c r="S4" t="n">
-        <v>66.10961</v>
-      </c>
-      <c r="T4" t="n">
-        <v>59.75216</v>
-      </c>
-      <c r="U4" t="n">
-        <v>154.41517</v>
-      </c>
-      <c r="V4" t="n">
-        <v>385.6358</v>
-      </c>
-      <c r="W4" t="n">
-        <v>111.90756</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1141.56648</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5512.67249</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1051.90614</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>600.34306</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>54.97166</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1416.55752</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3137.10866</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>831.2093599999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>348.70582</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>308.00732</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>213.15048</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>819.65468</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>91.49036</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>223.52931</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>306.50225</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>409.30478</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2695.25998</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>50.98451</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
